--- a/Tracking/Portfolio_tracking/realtime_config.xlsx
+++ b/Tracking/Portfolio_tracking/realtime_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Tracking\Portfolio_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D76E3A7-FB28-4754-BA2C-819B353CE841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71CD210-05B4-4B86-8523-64C40BDE591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>score_name</t>
   </si>
@@ -93,6 +93,55 @@
   </si>
   <si>
     <t>gms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3_hs300_top150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1_hs300_top150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeselecting_hs300</t>
+  </si>
+  <si>
+    <t>timeselecting_hs300_pro</t>
+  </si>
+  <si>
+    <t>中证500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeselecting_zz500</t>
+  </si>
+  <si>
+    <t>中证A500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeselecting_zzA500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeselecting_zzA500_pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3_zz2000_top100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证2000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -112,12 +161,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -429,115 +480,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
